--- a/framwork.xlsx
+++ b/framwork.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iLabService\传感器程序设计\designer\designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC668BC-7B80-48B1-BF59-95351A4B1C76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C21D88-B89A-4EF3-8C78-E517E06194CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="1440" windowWidth="21600" windowHeight="12300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>冰箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +192,74 @@
   </si>
   <si>
     <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vol.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfid.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ble.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mqtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transferManager.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorsManager.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorsMain.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipc.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipc.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transMain.c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,12 +566,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -789,12 +858,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>0</v>
       </c>
@@ -802,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>4</v>
       </c>
@@ -810,20 +879,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="31" t="s">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D15" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>0</v>
       </c>
@@ -831,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>3</v>
       </c>
@@ -857,9 +926,9 @@
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -877,7 +946,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="15"/>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -897,7 +966,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="15"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -915,7 +984,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="16"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="15"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -939,7 +1008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -968,7 +1037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="15"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -992,7 +1061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="15"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -1018,7 +1087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1046,7 +1115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="4">
         <v>7</v>
@@ -1076,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1116,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5">
@@ -1152,7 +1221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -1175,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -1193,7 +1262,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -1219,7 +1288,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="2:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
@@ -1245,7 +1314,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="16"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -1263,7 +1332,7 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="19" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -1275,7 +1344,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C20" s="15"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1287,7 +1356,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C21" s="15"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1299,7 +1368,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="16"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C22" s="15"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1311,7 +1380,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="16"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C23" s="15"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1323,7 +1392,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="16"/>
     </row>
-    <row r="24" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1337,7 +1406,7 @@
       </c>
       <c r="L24" s="16"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C25" s="15"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1349,7 +1418,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="16"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C26" s="15"/>
       <c r="D26" s="5" t="s">
         <v>12</v>
@@ -1363,7 +1432,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="16"/>
     </row>
-    <row r="27" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1375,7 +1444,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C28" s="15"/>
       <c r="D28" s="5"/>
       <c r="E28" s="1"/>
@@ -1387,7 +1456,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C29" s="15"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
@@ -1399,7 +1468,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="16"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C30" s="15"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
@@ -1411,7 +1480,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="16"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C31" s="15"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4" t="s">
@@ -1427,7 +1496,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="16"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C32" s="15"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
@@ -1439,7 +1508,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="16"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="15"/>
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
@@ -1451,7 +1520,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="16"/>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" s="15"/>
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
@@ -1463,7 +1532,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="16"/>
     </row>
-    <row r="35" spans="3:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="15"/>
       <c r="D35" s="5"/>
       <c r="E35" s="7"/>
@@ -1475,7 +1544,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="16"/>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -1487,7 +1556,7 @@
       <c r="K36" s="18"/>
       <c r="L36" s="19"/>
     </row>
-    <row r="38" spans="3:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -1495,7 +1564,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="14"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39" s="15"/>
       <c r="D39" s="5" t="s">
         <v>15</v>
@@ -1505,7 +1574,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40" s="15"/>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
@@ -1513,7 +1582,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41" s="15"/>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
@@ -1521,7 +1590,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42" s="15"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
@@ -1531,7 +1600,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C43" s="15"/>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
@@ -1539,7 +1608,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C44" s="15"/>
       <c r="D44" s="5"/>
       <c r="E44" s="4"/>
@@ -1547,7 +1616,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="3:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="15"/>
       <c r="D45" s="5"/>
       <c r="E45" s="7"/>
@@ -1555,7 +1624,7 @@
       <c r="G45" s="9"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46" s="15"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1563,7 +1632,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
@@ -1582,13 +1651,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6F2B6D-71BF-4120-B679-8C36B85BC461}">
   <dimension ref="C5:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -1609,7 +1678,7 @@
       <c r="U5" s="30"/>
       <c r="V5" s="30"/>
     </row>
-    <row r="8" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
@@ -1625,7 +1694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
@@ -1646,7 +1715,7 @@
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
     </row>
-    <row r="10" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F10" s="26"/>
       <c r="G10" s="26" t="s">
         <v>37</v>
@@ -1661,7 +1730,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
     </row>
-    <row r="11" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
@@ -1677,7 +1746,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
     </row>
-    <row r="12" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
@@ -1693,7 +1762,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
     </row>
-    <row r="13" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
@@ -1709,7 +1778,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
     </row>
-    <row r="14" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
@@ -1728,7 +1797,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
     </row>
-    <row r="15" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F15" s="26"/>
       <c r="G15" s="26" t="s">
         <v>22</v>
@@ -1757,7 +1826,7 @@
       </c>
       <c r="V15" s="22"/>
     </row>
-    <row r="16" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -1776,7 +1845,7 @@
       <c r="U16" s="22"/>
       <c r="V16" s="22"/>
     </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
@@ -1795,7 +1864,7 @@
       <c r="U17" s="26"/>
       <c r="V17" s="26"/>
     </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1894,7 @@
       <c r="U18" s="26"/>
       <c r="V18" s="26"/>
     </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -1844,7 +1913,7 @@
       <c r="U19" s="26"/>
       <c r="V19" s="26"/>
     </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F20" s="24"/>
       <c r="G20" s="24" t="s">
         <v>19</v>
@@ -1854,7 +1923,7 @@
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="32"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -1865,7 +1934,7 @@
       <c r="U20" s="24"/>
       <c r="V20" s="24"/>
     </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -1873,7 +1942,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="34" t="s">
+      <c r="M21" s="33" t="s">
         <v>39</v>
       </c>
       <c r="N21" s="21"/>
@@ -1886,7 +1955,7 @@
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
     </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21" t="s">
@@ -1896,7 +1965,7 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="33"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
@@ -1907,7 +1976,7 @@
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -1915,7 +1984,7 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="33"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
@@ -1926,7 +1995,7 @@
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
     </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -1945,7 +2014,7 @@
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
     </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -1966,7 +2035,7 @@
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
     </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
       <c r="G26" s="25" t="s">
         <v>30</v>
       </c>
@@ -1990,12 +2059,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>1</v>
       </c>
@@ -2026,4 +2095,119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAB355B-59E8-4439-B0BB-8692887C2C45}">
+  <dimension ref="C2:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/framwork.xlsx
+++ b/framwork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iLabService\传感器程序设计\designer\designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C21D88-B89A-4EF3-8C78-E517E06194CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE36BCF-09E6-4133-84D4-AA224A4FBF82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1440" windowWidth="21600" windowHeight="12300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="1440" windowWidth="21600" windowHeight="12300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>冰箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,26 @@
   </si>
   <si>
     <t>transMain.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯读取传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互式外设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板间通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互式外设：与用户有交互（输入/输出交互）或者受控输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点：输入不定时性，不确定性，处理事件频率较低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -572,6 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -587,6 +614,191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="箭头: 下 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333AA9FA-DFC6-4774-9739-BED47CBF6A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13249275" y="990600"/>
+          <a:ext cx="200025" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="箭头: 下 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C01B0E-7588-4CA4-B187-FDB03C735586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067675" y="1190624"/>
+          <a:ext cx="247650" cy="1609725"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="箭头: 下 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DBAA1D-8E06-42E9-A275-E851CD3A36C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="800100"/>
+          <a:ext cx="238125" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -922,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E19AA9D-B800-4F2D-ADC5-E2670A841584}">
   <dimension ref="B2:U47"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1649,77 +1861,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6F2B6D-71BF-4120-B679-8C36B85BC461}">
-  <dimension ref="C5:X35"/>
+  <dimension ref="C5:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:J18"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="6:24" x14ac:dyDescent="0.2">
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30" t="s">
+      <c r="F5" s="35">
+        <v>100</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+    </row>
+    <row r="6" spans="6:24" x14ac:dyDescent="0.2">
+      <c r="F6" s="21">
+        <v>101</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+    </row>
+    <row r="7" spans="6:24" x14ac:dyDescent="0.2">
+      <c r="F7" s="30">
+        <v>102</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-    </row>
-    <row r="8" spans="6:24" x14ac:dyDescent="0.2">
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="X8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="6:24" x14ac:dyDescent="0.2">
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
     </row>
     <row r="10" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F10" s="26"/>
-      <c r="G10" s="26" t="s">
-        <v>37</v>
-      </c>
+      <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
@@ -1729,6 +1946,9 @@
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
+      <c r="X10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F11" s="26"/>
@@ -1736,25 +1956,29 @@
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
+      <c r="S11" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
     </row>
     <row r="12" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
@@ -1787,9 +2011,6 @@
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
@@ -1799,31 +2020,18 @@
     </row>
     <row r="15" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F15" s="26"/>
-      <c r="G15" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="G15" s="26"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="26" t="s">
-        <v>24</v>
-      </c>
+      <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="27"/>
-      <c r="L15" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="L15" s="27"/>
       <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
-      <c r="S15" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="S15" s="22"/>
       <c r="T15" s="22"/>
-      <c r="U15" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="U15" s="22"/>
       <c r="V15" s="22"/>
     </row>
     <row r="16" spans="6:24" x14ac:dyDescent="0.2">
@@ -1846,53 +2054,52 @@
       <c r="V16" s="22"/>
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="27"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="22"/>
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="29"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F19" s="23"/>
@@ -1914,67 +2121,74 @@
       <c r="V19" s="26"/>
     </row>
     <row r="20" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="F20" s="24"/>
-      <c r="G20" s="24" t="s">
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="29"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F22" s="24"/>
+      <c r="G22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-    </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-    </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
     </row>
     <row r="23" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F23" s="21"/>
@@ -1984,7 +2198,9 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="32"/>
+      <c r="M23" s="33" t="s">
+        <v>39</v>
+      </c>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
@@ -1996,104 +2212,204 @@
       <c r="V23" s="21"/>
     </row>
     <row r="24" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
     </row>
     <row r="25" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25" t="s">
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-    </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="G26" s="25" t="s">
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="G28" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M28" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="25"/>
-      <c r="Q26" s="25" t="s">
+      <c r="O28" s="25"/>
+      <c r="Q28" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="S26" s="25" t="s">
+      <c r="S28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U26" s="25" t="s">
+      <c r="U28" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I34">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="I36">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C35">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C37">
         <v>1</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>1</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>1</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <v>1</v>
       </c>
-      <c r="G35">
+      <c r="G37">
         <v>1</v>
       </c>
-      <c r="H35">
+      <c r="H37">
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="I37">
         <v>1</v>
       </c>
-      <c r="J35">
+      <c r="J37">
         <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="14"/>
+      <c r="P43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="H44" s="15"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="16"/>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="H45" s="15"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="16"/>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="H46" s="15"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="16"/>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="H47" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2101,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAB355B-59E8-4439-B0BB-8692887C2C45}">
   <dimension ref="C2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
